--- a/data/glucose/ribose_gluctest.xlsx
+++ b/data/glucose/ribose_gluctest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Seagate Exp/1. Master/7. Skjemaer/Resultater/Rådata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3560e5ddcd8545bd/Documents/ribose-paper/data/glucose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491EED8-DDCB-654D-A8A6-4BEA3FD38EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{0491EED8-DDCB-654D-A8A6-4BEA3FD38EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CD871A5-4355-4A65-94A8-201402995A19}"/>
   <bookViews>
-    <workbookView xWindow="48300" yWindow="-1120" windowWidth="18840" windowHeight="16760" xr2:uid="{FFD462E4-8A97-A840-AE17-FF7A2E465B8F}"/>
+    <workbookView xWindow="-27255" yWindow="1395" windowWidth="24795" windowHeight="13035" xr2:uid="{FFD462E4-8A97-A840-AE17-FF7A2E465B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="23">
   <si>
     <t>subject</t>
   </si>
@@ -83,15 +83,43 @@
   <si>
     <t>R</t>
   </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>samplenr</t>
+  </si>
+  <si>
+    <t>sample.time</t>
+  </si>
+  <si>
+    <t>lactate</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,10 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,7 +168,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4EF7B2-698A-3146-8F69-9C9A52BD5CDB}">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:P196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167:H181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +497,29 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -494,8 +544,23 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>3001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -520,8 +585,23 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>3001</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>15</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
@@ -546,8 +626,23 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>3001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -572,8 +667,23 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>3001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+      <c r="M5" s="3">
+        <v>45</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>101</v>
       </c>
@@ -598,8 +708,23 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>3001</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>101</v>
       </c>
@@ -624,8 +749,23 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>3001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3">
+        <v>90</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -650,8 +790,23 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>3001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3">
+        <v>120</v>
+      </c>
+      <c r="P8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>101</v>
       </c>
@@ -676,8 +831,23 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>3001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>101</v>
       </c>
@@ -702,8 +872,23 @@
       <c r="H10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>3001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>101</v>
       </c>
@@ -728,8 +913,23 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>3001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>30</v>
+      </c>
+      <c r="P11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -754,8 +954,23 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>3001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>101</v>
       </c>
@@ -780,8 +995,23 @@
       <c r="H13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>3001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>101</v>
       </c>
@@ -806,8 +1036,23 @@
       <c r="H14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>3001</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" s="3">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>101</v>
       </c>
@@ -832,8 +1077,23 @@
       <c r="H15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>3001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3">
+        <v>120</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>101</v>
       </c>
@@ -859,7 +1119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>102</v>
       </c>
@@ -885,7 +1145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>102</v>
       </c>
@@ -911,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>102</v>
       </c>
@@ -937,7 +1197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -963,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>102</v>
       </c>
@@ -989,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>102</v>
       </c>
@@ -1015,7 +1275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>102</v>
       </c>
@@ -1041,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1067,7 +1327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>102</v>
       </c>
@@ -1093,7 +1353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>102</v>
       </c>
@@ -1119,7 +1379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>102</v>
       </c>
@@ -1145,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>102</v>
       </c>
@@ -1171,7 +1431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>102</v>
       </c>
@@ -1197,7 +1457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>102</v>
       </c>
@@ -1223,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>102</v>
       </c>
@@ -1249,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>103</v>
       </c>
@@ -1275,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>103</v>
       </c>
@@ -1301,7 +1561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -1327,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>103</v>
       </c>
@@ -1353,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>103</v>
       </c>
@@ -1379,7 +1639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>103</v>
       </c>
@@ -1405,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>103</v>
       </c>
@@ -1431,7 +1691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>103</v>
       </c>
@@ -1457,7 +1717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>103</v>
       </c>
@@ -1483,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>103</v>
       </c>
@@ -1509,7 +1769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>103</v>
       </c>
@@ -1535,7 +1795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>103</v>
       </c>
@@ -1561,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>103</v>
       </c>
@@ -1587,7 +1847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>103</v>
       </c>
@@ -1613,7 +1873,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>103</v>
       </c>
@@ -1639,7 +1899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>105</v>
       </c>
@@ -1665,7 +1925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>105</v>
       </c>
@@ -1691,7 +1951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>105</v>
       </c>
@@ -1717,7 +1977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>105</v>
       </c>
@@ -1743,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>105</v>
       </c>
@@ -1769,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>105</v>
       </c>
@@ -1795,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>105</v>
       </c>
@@ -1821,7 +2081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>105</v>
       </c>
@@ -1847,7 +2107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>105</v>
       </c>
@@ -1873,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>105</v>
       </c>
@@ -1899,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>105</v>
       </c>
@@ -1925,7 +2185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>105</v>
       </c>
@@ -1951,7 +2211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>105</v>
       </c>
@@ -1977,7 +2237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>105</v>
       </c>
@@ -2003,7 +2263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>105</v>
       </c>
@@ -2029,7 +2289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>106</v>
       </c>
@@ -2055,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>106</v>
       </c>
@@ -2081,7 +2341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>106</v>
       </c>
@@ -2107,7 +2367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>106</v>
       </c>
@@ -2133,7 +2393,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>106</v>
       </c>
@@ -2159,7 +2419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>106</v>
       </c>
@@ -2185,7 +2445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>106</v>
       </c>
@@ -2211,7 +2471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>106</v>
       </c>
@@ -2237,7 +2497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>106</v>
       </c>
@@ -2263,7 +2523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>106</v>
       </c>
@@ -2289,7 +2549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>106</v>
       </c>
@@ -2315,7 +2575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>106</v>
       </c>
@@ -2341,7 +2601,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>106</v>
       </c>
@@ -2367,7 +2627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>106</v>
       </c>
@@ -2393,7 +2653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>106</v>
       </c>
@@ -2419,7 +2679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>107</v>
       </c>
@@ -2445,7 +2705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>107</v>
       </c>
@@ -2471,7 +2731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>107</v>
       </c>
@@ -2497,7 +2757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>107</v>
       </c>
@@ -2523,7 +2783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>107</v>
       </c>
@@ -2549,7 +2809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>107</v>
       </c>
@@ -2575,7 +2835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>107</v>
       </c>
@@ -2601,7 +2861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>107</v>
       </c>
@@ -2627,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>107</v>
       </c>
@@ -2653,7 +2913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>107</v>
       </c>
@@ -2679,7 +2939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>107</v>
       </c>
@@ -2705,7 +2965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>107</v>
       </c>
@@ -2731,7 +2991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>107</v>
       </c>
@@ -2757,7 +3017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>107</v>
       </c>
@@ -2783,7 +3043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>107</v>
       </c>
@@ -2809,7 +3069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>108</v>
       </c>
@@ -2835,7 +3095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>108</v>
       </c>
@@ -2861,7 +3121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>108</v>
       </c>
@@ -2887,7 +3147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>108</v>
       </c>
@@ -2913,7 +3173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>108</v>
       </c>
@@ -2939,7 +3199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>108</v>
       </c>
@@ -2965,7 +3225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>108</v>
       </c>
@@ -2991,7 +3251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>108</v>
       </c>
@@ -3017,7 +3277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>108</v>
       </c>
@@ -3043,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>108</v>
       </c>
@@ -3069,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>108</v>
       </c>
@@ -3095,7 +3355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>108</v>
       </c>
@@ -3121,7 +3381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>108</v>
       </c>
@@ -3147,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>108</v>
       </c>
@@ -3173,7 +3433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>108</v>
       </c>
@@ -3199,7 +3459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>109</v>
       </c>
@@ -3225,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>109</v>
       </c>
@@ -3251,7 +3511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -3277,7 +3537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3303,7 +3563,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3329,7 +3589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -3355,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -3381,7 +3641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>109</v>
       </c>
@@ -3407,7 +3667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>109</v>
       </c>
@@ -3433,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>109</v>
       </c>
@@ -3459,7 +3719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>109</v>
       </c>
@@ -3485,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>109</v>
       </c>
@@ -3511,7 +3771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>109</v>
       </c>
@@ -3537,7 +3797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>109</v>
       </c>
@@ -3563,7 +3823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>109</v>
       </c>
@@ -3589,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>112</v>
       </c>
@@ -3615,7 +3875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>112</v>
       </c>
@@ -3641,7 +3901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>112</v>
       </c>
@@ -3667,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>112</v>
       </c>
@@ -3693,7 +3953,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>112</v>
       </c>
@@ -3719,7 +3979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>112</v>
       </c>
@@ -3745,7 +4005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>112</v>
       </c>
@@ -3771,7 +4031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>112</v>
       </c>
@@ -3797,7 +4057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>112</v>
       </c>
@@ -3823,7 +4083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>112</v>
       </c>
@@ -3849,7 +4109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>112</v>
       </c>
@@ -3875,7 +4135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>112</v>
       </c>
@@ -3901,7 +4161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>112</v>
       </c>
@@ -3927,7 +4187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>112</v>
       </c>
@@ -3953,7 +4213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>112</v>
       </c>
@@ -3979,7 +4239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>113</v>
       </c>
@@ -4005,7 +4265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>113</v>
       </c>
@@ -4031,7 +4291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>113</v>
       </c>
@@ -4057,7 +4317,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>113</v>
       </c>
@@ -4083,7 +4343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>113</v>
       </c>
@@ -4109,7 +4369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>113</v>
       </c>
@@ -4135,7 +4395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>113</v>
       </c>
@@ -4161,7 +4421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>113</v>
       </c>
@@ -4187,7 +4447,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>113</v>
       </c>
@@ -4213,7 +4473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>113</v>
       </c>
@@ -4239,7 +4499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>113</v>
       </c>
@@ -4265,7 +4525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>113</v>
       </c>
@@ -4291,7 +4551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>113</v>
       </c>
@@ -4317,7 +4577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>113</v>
       </c>
@@ -4343,7 +4603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>113</v>
       </c>
@@ -4369,7 +4629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>114</v>
       </c>
@@ -4395,7 +4655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>114</v>
       </c>
@@ -4421,7 +4681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>114</v>
       </c>
@@ -4447,7 +4707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>114</v>
       </c>
@@ -4473,7 +4733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>114</v>
       </c>
@@ -4499,7 +4759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>114</v>
       </c>
@@ -4525,7 +4785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>114</v>
       </c>
@@ -4551,7 +4811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>114</v>
       </c>
@@ -4577,7 +4837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>114</v>
       </c>
@@ -4603,7 +4863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>114</v>
       </c>
@@ -4629,7 +4889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>114</v>
       </c>
@@ -4655,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>114</v>
       </c>
@@ -4681,7 +4941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>114</v>
       </c>
@@ -4707,7 +4967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>114</v>
       </c>
@@ -4733,7 +4993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>114</v>
       </c>
@@ -4759,7 +5019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>115</v>
       </c>
@@ -4785,7 +5045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>115</v>
       </c>
@@ -4811,7 +5071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>115</v>
       </c>
@@ -4837,7 +5097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>115</v>
       </c>
@@ -4863,7 +5123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>115</v>
       </c>
@@ -4889,7 +5149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>115</v>
       </c>
@@ -4915,7 +5175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>115</v>
       </c>
@@ -4941,7 +5201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>115</v>
       </c>
@@ -4967,7 +5227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>115</v>
       </c>
@@ -4993,7 +5253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>115</v>
       </c>
@@ -5019,7 +5279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>115</v>
       </c>
@@ -5045,7 +5305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>115</v>
       </c>
@@ -5071,7 +5331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>115</v>
       </c>
@@ -5097,7 +5357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>115</v>
       </c>
@@ -5123,7 +5383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>115</v>
       </c>
@@ -5149,7 +5409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>116</v>
       </c>
@@ -5175,7 +5435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>116</v>
       </c>
@@ -5201,7 +5461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>116</v>
       </c>
@@ -5227,7 +5487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>116</v>
       </c>
@@ -5253,7 +5513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>116</v>
       </c>
@@ -5279,7 +5539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>116</v>
       </c>
@@ -5305,7 +5565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>116</v>
       </c>
@@ -5331,7 +5591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>116</v>
       </c>
@@ -5357,7 +5617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>116</v>
       </c>
@@ -5383,7 +5643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>116</v>
       </c>
@@ -5409,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>116</v>
       </c>
@@ -5435,7 +5695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>116</v>
       </c>
@@ -5461,7 +5721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>116</v>
       </c>
@@ -5487,7 +5747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>116</v>
       </c>
@@ -5513,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>116</v>
       </c>
